--- a/Audit SEO/Audit-SEO (1).xlsx
+++ b/Audit SEO/Audit-SEO (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Catégorie</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
-    <t>accessibililté</t>
-  </si>
-  <si>
     <t>contraste</t>
   </si>
   <si>
@@ -69,13 +63,96 @@
   </si>
   <si>
     <t>balise title entre les balises head</t>
+  </si>
+  <si>
+    <t>Erreur W3C</t>
+  </si>
+  <si>
+    <t>Black Hat</t>
+  </si>
+  <si>
+    <t>des mots invisibles dans l'entête</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégrer dans le texte </t>
+  </si>
+  <si>
+    <t>Localisation</t>
+  </si>
+  <si>
+    <t>Adresse complète ;
+Numéro de téléphone si nécessaire ;
+Horaires si nécessaire ;
+Une carte est un plus pour indiquer votre emplacement ;
+Un descriptif d'accès ;
+Un descriptif du lieu.</t>
+  </si>
+  <si>
+    <t>Accessibililté</t>
+  </si>
+  <si>
+    <t>pas d'adresse sur la page d'acceuil</t>
+  </si>
+  <si>
+    <t>Pas d'avis vérifié</t>
+  </si>
+  <si>
+    <t>Avis peu crédible</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trustpilot et avis-vérifiés : sites d'avis généralistes, sollicités ou non. Des entreprises dans tous les domaines (ou presque) y sont représentées. 
+Glassdoor : plateforme de recrutement qui propose aussi aux employés de déposer des avis sur leur entreprise.
+Yelp : site d'avis généralistes et participatifs pour les commerces de proximité
+Tripadvisor : site d'avis participatifs et conseils dans le domaine du voyage.                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ouvrir un compte Google my Business</t>
+    </r>
+  </si>
+  <si>
+    <t>SEO&amp;Accessibilité</t>
+  </si>
+  <si>
+    <t>Lien identique sur la même adresse URL</t>
+  </si>
+  <si>
+    <t>Problème de compréhension sur l'accessibilité et peur-être considéré par Google Bot comme du Black Hat</t>
+  </si>
+  <si>
+    <t>Taille des polices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trop petite pour être lu facilement </t>
+  </si>
+  <si>
+    <t>Utiliser une police adapté avec un font-size d'une unité en REM pour l'adapter facilement au police parent</t>
+  </si>
+  <si>
+    <t>Alt est identique sur toutes les images</t>
+  </si>
+  <si>
+    <t>Accessibililté &amp; SEO</t>
+  </si>
+  <si>
+    <t>Peut-être considéré commen du Black Hat par google Bot et ne rensigne pas de description sur l'image pour le mal voant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire une description précise de l'image </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,12 +172,21 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -136,11 +222,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -150,11 +233,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,158 +460,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="21.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="2" customWidth="1"/>
-    <col min="7" max="26" width="10.5546875" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="11.21875" style="2"/>
+    <col min="1" max="4" width="21.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="1" customWidth="1"/>
+    <col min="7" max="26" width="10.5546875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="11.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="b">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="4" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="b">
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="5" spans="1:26" s="4" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="b">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="6" t="b">
+    <row r="6" spans="1:26" s="4" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="6" t="b">
+    <row r="7" spans="1:26" s="4" customFormat="1" ht="381" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="6" t="b">
+    <row r="8" spans="1:26" s="4" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="6" t="b">
+    <row r="9" spans="1:26" s="4" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="6" t="b">
+    <row r="10" spans="1:26" s="4" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="6" t="b">
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="6" t="b">
+    <row r="12" spans="1:26" s="4" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="6" t="b">
+    <row r="13" spans="1:26" s="4" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="6" t="b">
+    <row r="14" spans="1:26" s="4" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1507,9 +1664,8 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>